--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H2">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I2">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J2">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N2">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O2">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P2">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q2">
-        <v>0.1145128526224445</v>
+        <v>0.005440372575555555</v>
       </c>
       <c r="R2">
-        <v>1.030615673602</v>
+        <v>0.04896335318</v>
       </c>
       <c r="S2">
-        <v>0.002237232011670925</v>
+        <v>0.001293029567640745</v>
       </c>
       <c r="T2">
-        <v>0.002237232011670924</v>
+        <v>0.001293029567640745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H3">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I3">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J3">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P3">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q3">
-        <v>0.008963047778444446</v>
+        <v>0.04473605188222223</v>
       </c>
       <c r="R3">
-        <v>0.080667430006</v>
+        <v>0.40262446694</v>
       </c>
       <c r="S3">
-        <v>0.0001751106269109012</v>
+        <v>0.01063255080784918</v>
       </c>
       <c r="T3">
-        <v>0.0001751106269109011</v>
+        <v>0.01063255080784918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>24.199846</v>
       </c>
       <c r="I4">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J4">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N4">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O4">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P4">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q4">
-        <v>25.90796255232044</v>
+        <v>0.2466071862271111</v>
       </c>
       <c r="R4">
-        <v>233.171662970884</v>
+        <v>2.219464676044</v>
       </c>
       <c r="S4">
-        <v>0.5061625996719107</v>
+        <v>0.05861186508017419</v>
       </c>
       <c r="T4">
-        <v>0.5061625996719106</v>
+        <v>0.05861186508017421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>0.754162</v>
       </c>
       <c r="O5">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P5">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q5">
         <v>2.027844917672445</v>
@@ -756,10 +756,10 @@
         <v>18.250604259052</v>
       </c>
       <c r="S5">
-        <v>0.03961790716609728</v>
+        <v>0.4819639465359088</v>
       </c>
       <c r="T5">
-        <v>0.03961790716609728</v>
+        <v>0.4819639465359088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H6">
         <v>20.033078</v>
       </c>
       <c r="I6">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J6">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N6">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O6">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P6">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q6">
-        <v>21.44708832575689</v>
+        <v>0.2041459684102222</v>
       </c>
       <c r="R6">
-        <v>193.023794931812</v>
+        <v>1.837313715692</v>
       </c>
       <c r="S6">
-        <v>0.4190107176677969</v>
+        <v>0.04851998086585369</v>
       </c>
       <c r="T6">
-        <v>0.4190107176677967</v>
+        <v>0.0485199808658537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H7">
         <v>20.033078</v>
       </c>
       <c r="I7">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J7">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.754162</v>
       </c>
       <c r="O7">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P7">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q7">
         <v>1.678687352292889</v>
@@ -880,10 +880,10 @@
         <v>15.108186170636</v>
       </c>
       <c r="S7">
-        <v>0.03279643285561346</v>
+        <v>0.3989786271425733</v>
       </c>
       <c r="T7">
-        <v>0.03279643285561345</v>
+        <v>0.3989786271425732</v>
       </c>
     </row>
   </sheetData>
